--- a/retract_redundant_rules.xlsx
+++ b/retract_redundant_rules.xlsx
@@ -814,11 +814,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -1187,11 +1185,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -1214,12 +1210,15 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
             <a:r>
               <a:rPr lang="fr-FR" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -1676,11 +1675,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -1709,6 +1706,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&lt;</a:t>
             </a:r>
@@ -1991,11 +1991,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -2024,6 +2022,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -2538,11 +2539,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -2571,6 +2570,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&lt;</a:t>
             </a:r>
@@ -2853,11 +2855,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -2886,6 +2886,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -3400,11 +3403,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -3433,6 +3434,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&lt;</a:t>
             </a:r>
@@ -3773,11 +3777,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -3806,6 +3808,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -4262,11 +4267,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -4295,6 +4298,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&lt;</a:t>
             </a:r>
@@ -4693,11 +4699,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -4726,6 +4730,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -5124,11 +5131,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -5157,6 +5162,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -5555,11 +5563,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -5588,6 +5594,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -5986,11 +5995,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -6019,6 +6026,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -6417,11 +6427,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -6450,6 +6458,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -6848,11 +6859,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -6881,6 +6890,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -7279,11 +7291,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -7312,6 +7322,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -7710,11 +7723,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -7743,6 +7754,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -8141,11 +8155,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -8174,6 +8186,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -8514,11 +8529,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -8547,6 +8560,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&lt;</a:t>
             </a:r>
@@ -8945,11 +8961,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -8978,6 +8992,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -9318,11 +9335,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -9351,6 +9366,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&lt;</a:t>
             </a:r>
@@ -9865,11 +9883,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -9898,6 +9914,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>||</a:t>
             </a:r>
@@ -10180,11 +10199,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -10213,6 +10230,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -10669,11 +10689,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -10702,6 +10720,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>||</a:t>
             </a:r>
@@ -11100,11 +11121,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -11133,6 +11152,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&lt;</a:t>
             </a:r>
@@ -11531,11 +11553,9 @@
               <a:alpha val="10000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln w="3175">
+          <a:ln w="57150" cmpd="thickThin">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
           </a:ln>
@@ -11564,6 +11584,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>&gt;&gt;</a:t>
             </a:r>
@@ -48052,7 +48075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
